--- a/Docs/ISIS1225 - Tablas de Datos Lab 4-5 MAQUINA 1.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4-5 MAQUINA 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\vs repositorios\Reto\Reto1-G04\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1902876135bf28ab/Documents/EDA/Reto 1/Reto1-G04/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65384AB5-9D8F-4BE0-9442-D81DC2F22FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{65384AB5-9D8F-4BE0-9442-D81DC2F22FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4329D55-0FBC-473F-98D3-1E4AE62D2AAB}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="1380" windowWidth="14385" windowHeight="9135" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <r>
       <t>T</t>
@@ -78,6 +87,9 @@
   <si>
     <t>Merge Sort [ms]</t>
   </si>
+  <si>
+    <t>tiempo excesivo</t>
+  </si>
 </sst>
 </file>
 
@@ -109,15 +121,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,11 +143,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -140,17 +167,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -414,81 +447,6 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -686,7 +644,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -761,39 +720,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$B$2:$B$11</c:f>
+              <c:f>'Datos Lab4-5'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>4671.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>18265.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>76390.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>292234.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>1219656.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>4945706.0999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,39 +879,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$2:$C$11</c:f>
+              <c:f>'Datos Lab4-5'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1343.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>21531.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>87875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>359734.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>1445171.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>5925204.7000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,6 +966,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6300853018372702E-2"/>
+                  <c:y val="-3.5697449226613664E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1069,6 +1016,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4676259657683688E-2"/>
+                  <c:y val="-5.573255102820885E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1140,39 +1093,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$2:$D$11</c:f>
+              <c:f>'Datos Lab4-5'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>140.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1796.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>24343.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>59453.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,6 +1194,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7816231377767919E-2"/>
+                  <c:y val="4.8080230869199606E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1419,6 +1375,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0492287715796089E-2"/>
+                  <c:y val="-7.0388827306780755E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1748,7 +1710,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1948,8 +1910,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9618151636373419E-2"/>
-          <c:y val="8.477122488864576E-2"/>
+          <c:x val="9.8420594329877736E-2"/>
+          <c:y val="5.44468622603696E-2"/>
           <c:w val="0.87419688477936697"/>
           <c:h val="0.71422440045225488"/>
         </c:manualLayout>
@@ -2005,7 +1967,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2080,39 +2042,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$B$15:$B$24</c:f>
+              <c:f>'Datos Lab4-5'!$B$15:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70109.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>581312.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2324085.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>9528750.0399999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,7 +2116,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2247,39 +2191,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$15:$C$24</c:f>
+              <c:f>'Datos Lab4-5'!$C$15:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>62312.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>510843.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2109784.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>8312551.6600000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,7 +2265,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2414,39 +2340,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$15:$D$24</c:f>
+              <c:f>'Datos Lab4-5'!$D$15:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>3734.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>15890.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>75359.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>3763795.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,10 +2497,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$15:$E$24</c:f>
+              <c:f>'Datos Lab4-5'!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2421.875</c:v>
                 </c:pt>
@@ -2749,10 +2657,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$15:$F$24</c:f>
+              <c:f>'Datos Lab4-5'!$F$15:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>359.375</c:v>
                 </c:pt>
@@ -2998,7 +2906,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3320,39 +3228,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$B$2:$B$11</c:f>
+              <c:f>'Datos Lab4-5'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>4671.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>18265.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>76390.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>292234.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>1219656.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>4945706.0999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,39 +3386,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$B$15:$B$24</c:f>
+              <c:f>'Datos Lab4-5'!$B$15:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70109.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>581312.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2324085.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>9528750.0399999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,7 +3621,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4057,39 +3938,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$2:$C$11</c:f>
+              <c:f>'Datos Lab4-5'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1343.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>21531.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>87875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>359734.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>1445171.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>5925204.7000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,39 +4096,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$15:$C$24</c:f>
+              <c:f>'Datos Lab4-5'!$C$15:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>62312.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>510843.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2109784.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>8312551.6600000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,7 +4331,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4794,39 +4648,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$2:$D$11</c:f>
+              <c:f>'Datos Lab4-5'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>140.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1796.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>24343.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>59453.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,39 +4812,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$15:$D$24</c:f>
+              <c:f>'Datos Lab4-5'!$D$15:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>3734.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>15890.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>75359.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>3763795.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,7 +5047,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5706,10 +5539,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$15:$E$24</c:f>
+              <c:f>'Datos Lab4-5'!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2421.875</c:v>
                 </c:pt>
@@ -6438,10 +6271,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$15:$F$24</c:f>
+              <c:f>'Datos Lab4-5'!$F$15:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>359.375</c:v>
                 </c:pt>
@@ -10702,7 +10535,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10713,7 +10546,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10724,7 +10557,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10735,7 +10568,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10746,7 +10579,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10757,7 +10590,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10768,7 +10601,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10801,7 +10634,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10834,7 +10667,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10867,7 +10700,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10900,7 +10733,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10933,7 +10766,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10966,7 +10799,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10996,13 +10829,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]"/>
     <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="8"/>
   </tableColumns>
@@ -11324,17 +11157,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.140625" customWidth="1"/>
+    <col min="5" max="6" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11361,19 +11194,19 @@
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>15.7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="B2" s="5">
+        <v>1125</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1343.75</v>
+      </c>
+      <c r="D2" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="E2" s="4">
         <v>46.875</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>31.25</v>
       </c>
     </row>
@@ -11381,20 +11214,19 @@
       <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3" s="4">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="6">
+        <v>4671.88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5375</v>
+      </c>
+      <c r="D3" s="6">
+        <v>140.63</v>
+      </c>
+      <c r="E3" s="4">
         <v>93.75</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>93.75</v>
       </c>
     </row>
@@ -11402,21 +11234,19 @@
       <c r="A4" s="1">
         <v>4000</v>
       </c>
-      <c r="B4" s="4">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="5">
+        <v>18265.63</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21531.25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>312.5</v>
+      </c>
+      <c r="E4" s="4">
         <v>243.375</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>203.125</v>
       </c>
     </row>
@@ -11424,21 +11254,19 @@
       <c r="A5" s="1">
         <v>8000</v>
       </c>
-      <c r="B5" s="4">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="6">
+        <v>76390.63</v>
+      </c>
+      <c r="C5" s="6">
+        <v>87875</v>
+      </c>
+      <c r="D5" s="6">
+        <v>750</v>
+      </c>
+      <c r="E5" s="4">
         <v>453.125</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>453.125</v>
       </c>
     </row>
@@ -11446,21 +11274,19 @@
       <c r="A6" s="1">
         <v>16000</v>
       </c>
-      <c r="B6" s="4">
-        <v>75</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="5">
+        <v>292234.38</v>
+      </c>
+      <c r="C6" s="5">
+        <v>359734.38</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1796.88</v>
+      </c>
+      <c r="E6" s="4">
         <v>937.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>968.75</v>
       </c>
     </row>
@@ -11468,21 +11294,19 @@
       <c r="A7" s="1">
         <v>32000</v>
       </c>
-      <c r="B7" s="4">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="6">
+        <v>1219656.25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1445171.88</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="4">
         <v>2125</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2078.125</v>
       </c>
     </row>
@@ -11490,21 +11314,19 @@
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="5">
+        <v>4945706.0999999996</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5925204.7000000002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="4">
         <v>4531.25</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>4531.25</v>
       </c>
     </row>
@@ -11512,21 +11334,19 @@
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>120</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>24343.75</v>
+      </c>
+      <c r="E9" s="4">
         <v>9859.375</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>9531.25</v>
       </c>
     </row>
@@ -11534,43 +11354,37 @@
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>59453.13</v>
+      </c>
+      <c r="E10" s="4">
         <v>22734.375</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>20171.875</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="1">
         <v>375942</v>
       </c>
-      <c r="B11" s="4">
-        <v>150</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4">
         <v>34671.875</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>30531.25</v>
       </c>
     </row>
@@ -11598,19 +11412,19 @@
       <c r="A15" s="1">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B15" s="5">
+        <v>70109.38</v>
+      </c>
+      <c r="C15" s="5">
+        <v>62312.5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3734.38</v>
+      </c>
+      <c r="E15" s="4">
         <v>2421.875</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>359.375</v>
       </c>
     </row>
@@ -11618,20 +11432,19 @@
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="4">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="B16" s="6">
+        <v>581312.5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>510843.75</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15890.63</v>
+      </c>
+      <c r="E16" s="4">
         <v>13312.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1328.125</v>
       </c>
     </row>
@@ -11639,21 +11452,19 @@
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17" s="5">
+        <v>2324085.38</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2109784.69</v>
+      </c>
+      <c r="D17" s="5">
+        <v>75359.38</v>
+      </c>
+      <c r="E17" s="4">
         <v>57703.125</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>5312.5</v>
       </c>
     </row>
@@ -11661,21 +11472,19 @@
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="6">
+        <v>9528750.0399999991</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8312551.6600000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3763795.04</v>
+      </c>
+      <c r="E18" s="4">
         <v>227156.25</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>21156.25</v>
       </c>
     </row>
@@ -11683,21 +11492,19 @@
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
         <v>958281.25</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>84750</v>
       </c>
     </row>
@@ -11705,19 +11512,17 @@
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <v>312684.77500000002</v>
       </c>
     </row>
@@ -11725,19 +11530,17 @@
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>1602383</v>
       </c>
     </row>
@@ -11745,55 +11548,49 @@
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11805,21 +11602,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12030,10 +11812,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12056,20 +11864,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>